--- a/Data/euro22_Lassi.xlsx
+++ b/Data/euro22_Lassi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C4D36-DF33-4F69-ADD6-9519A4870EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52150677-96E6-444E-B220-96FC50683F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16215" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>Ada Hegerberg</t>
   </si>
   <si>
-    <t>Esther González</t>
-  </si>
-  <si>
     <t>Lassi</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Mestari</t>
+  </si>
+  <si>
+    <t>Esther Gonzalez</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -946,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N4" s="34" t="s">
         <v>18</v>
@@ -955,10 +955,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="34" t="s">
         <v>61</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>6</v>
